--- a/Data/Output/Kim.xlsx
+++ b/Data/Output/Kim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7473E45-C268-4095-B184-2B0DD8839A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60FB7D-8286-4E53-85EB-36D579488638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{00273027-2F6C-496D-9082-8C8D8EBA13A7}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{533B41AE-79C4-45B3-8985-3CDA034489EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Chef Apron" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -60,7 +60,7 @@
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMDUyNjAzMTc4ODcwMDgwOjE3MTEwMTU5NjQ6c3BfYXRmOjMwMDE0NjI3ODk0ODkwMjo6MDo6&amp;url=%2FNike-Lebron-Witness-Basketball-Anthracite%2Fdp%2FB07Q75LXCK%2Fref%3Dsr_1_1_sspa%3Fcrid%3D1G826MHFW5J9C%26dib%3DeyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs%26dib_tag%3Dse%26keywords%3DLebron%2BWitness%26qid%3D1711015964%26sprefix%3Dlebr%252Caps%252C302%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTM3ODk1ODE0NjM2MDgwOjE3MTEwMTY1OTM6c3BfYXRmOjMwMDE0NjI3ODk0ODkwMjo6MDo6&amp;url=%2FNike-Lebron-Witness-Basketball-Anthracite%2Fdp%2FB07Q75LXCK%2Fref%3Dsr_1_1_sspa%3Fcrid%3DUFXBKHWHW45E%26dib%3DeyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs%26dib_tag%3Dse%26keywords%3DLebron%2BWitness%26qid%3D1711016593%26sprefix%3Dlebr%252Caps%252C312%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Nike mens Lebron Witness 5</t>
@@ -69,7 +69,7 @@
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Mens-Lebron-Witness-CQ9380/dp/B0BCGHCJKQ/ref=sr_1_16?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-16</t>
+    <t>https://www.amazon.com/Nike-Mens-Lebron-Witness-CQ9380/dp/B0BCGHCJKQ/ref=sr_1_16?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-16</t>
   </si>
   <si>
     <t>Nike mens Lebron Witness 6</t>
@@ -78,13 +78,13 @@
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Basketball-Trainers-Sneakers-Black-Anthracite-Volt/dp/B0BRXDRSY1/ref=sr_1_2?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-2</t>
+    <t>https://www.amazon.com/Nike-Basketball-Trainers-Sneakers-Black-Anthracite-Volt/dp/B0BRXDRSY1/ref=sr_1_2?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-2</t>
   </si>
   <si>
     <t>Nike NIKE Lebron Witness 7 Basketball Shoes Adult DM1123-501 (Vivid Purple/), Size 7.5</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-DM1123-501/dp/B0CMV8SZJQ/ref=sr_1_14?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-DM1123-501/dp/B0CMV8SZJQ/ref=sr_1_15?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-15</t>
   </si>
   <si>
     <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 Grey Fog/Hyper Pink</t>
@@ -93,7 +93,7 @@
     <t>5.0 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ3XS5K/ref=sr_1_11?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-11</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ3XS5K/ref=sr_1_11?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-11</t>
   </si>
   <si>
     <t>Nike unisex-adult Lebron Witness 7 Basketball Shoes</t>
@@ -102,13 +102,13 @@
     <t>4.1 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8WGVR7/ref=sr_1_23?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8WGVR7/ref=sr_1_23?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-23</t>
   </si>
   <si>
     <t>Lebron Witness 7 Basketball Shoes Size</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Lebron-Witness-Basketball-Shoes-Size/dp/B0BXQ4PBSQ/ref=sr_1_15?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-15</t>
+    <t>https://www.amazon.com/Lebron-Witness-Basketball-Shoes-Size/dp/B0BXQ4PBSQ/ref=sr_1_14?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-14</t>
   </si>
   <si>
     <t>Nike mens Lebron Witness 7 Basketball Shoes</t>
@@ -117,25 +117,25 @@
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Black-Sea/dp/B0CGKH27FS/ref=sr_1_6?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Black-Sea/dp/B0CGKH27FS/ref=sr_1_6?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-6</t>
   </si>
   <si>
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Basketball-DM1123-100-us_Footwear_Size_System-Numeric_10/dp/B0BX8WNWBW/ref=sr_1_9?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Nike-Basketball-DM1123-100-us_Footwear_Size_System-Numeric_10/dp/B0BX8WNWBW/ref=sr_1_9?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-9</t>
   </si>
   <si>
     <t>Nike Lebron Witness 7 VII Unisex Basketball Shoes Vivid Purple/Sea Coral/Oxygen Size 9.5M/11W</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Unisex-Basketball/dp/B0CD65Z6SW/ref=sr_1_17?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-17</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Unisex-Basketball/dp/B0CD65Z6SW/ref=sr_1_17?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-17</t>
   </si>
   <si>
     <t>Nike Lebron Witness 7 Basketball Shoes Size - 8.5 Grey Fog/Hyper Pink</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ32DZM/ref=sr_1_26?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-26</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ32DZM/ref=sr_1_26?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-26</t>
   </si>
   <si>
     <t>Nike Lebron Witness Basketball Shoes</t>
@@ -144,277 +144,277 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8ZNCGT/ref=sr_1_24?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8ZNCGT/ref=sr_1_24?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-24</t>
   </si>
   <si>
     <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 White/Metallic Silver-black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8WJPS1/ref=sr_1_13?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8XVDXT/ref=sr_1_7?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BYVQGDGV/ref=sr_1_12?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Basketball-Alligator-us_Footwear_Size_System-Numeric_10/dp/B0BV1L366Y/ref=sr_1_5?crid=1G826MHFW5J9C&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i40Co310_jGMENaPaFFUUBp-UtICEaqjWHWYbD9ERLgydLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.ki2_wVo2YdmG4_SDLhdo0oHoawXUupg7gjYHaeJosVs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711015964&amp;sprefix=lebr%2Caps%2C302&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8WJPS1/ref=sr_1_13?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8XVDXT/ref=sr_1_7?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BYVQGDGV/ref=sr_1_12?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Basketball-Alligator-us_Footwear_Size_System-Numeric_10/dp/B0BV1L366Y/ref=sr_1_5?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-5</t>
   </si>
   <si>
     <t>Monopoly Hasbro 100th Anniversary Edition</t>
   </si>
   <si>
-    <t>https://www.amazon.com/WS-Game-Company-Monopoly-Anniversary/dp/B0CCZFBYN5/ref=sr_1_8?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-8</t>
+    <t>https://www.amazon.com/WS-Game-Company-Monopoly-Anniversary/dp/B0CCZFBYN5/ref=sr_1_8?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Hasbro Gaming Monopoly: The Lord of The Rings Edition Board Game Inspired by The Movie Trilogy, Play as a Member of The Fellowship, for Kids Ages 8 and Up (Amazon Exclusive)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfbXRmOjIwMDA4NTc0Nzc2ODU5ODo6MDo6&amp;url=%2FHasbro-Games-Monopoly-Fellowship-Exclusive%2Fdp%2FB08K1BRGHC%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Ultimate Banking Edition Board Game for Families and Kids Ages 8 and Up, Electronic Banking Unit (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjY2NDg4MzM5MTc1MDgwOjE3MTEwMTU5Njg6c3BfYXRmOjIwMDAzMTM2MzE0Njg5ODo6MDo6&amp;url=%2FMonopoly-Ultimate-Banking-Board-Game%2Fdp%2FB01ALHAMTK%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3TXS5XGHTCW2G%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711015968%26sprefix%3Dhasb%252Caps%252C308%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-Ultimate-Banking-Board-Game/dp/B01ALHAMTK/ref=sr_1_11?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-11</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDAzMTM2MzE0Njg5ODo6MDo6&amp;url=%2FMonopoly-Ultimate-Banking-Board-Game%2Fdp%2FB01ALHAMTK%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Monopoly-Ultimate-Banking-Board-Game/dp/B01ALHAMTK/ref=sr_1_12?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-12</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Sparkle Edition Board Game, Family Games, with Glittery Tokens, Pearlescent Dice, Sparkly Look, (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjY2NDg4MzM5MTc1MDgwOjE3MTEwMTU5Njg6c3BfYXRmOjIwMDA3NzI5NjMwMTQ5ODo6MDo6&amp;url=%2FMonopoly-Sparkle-Glittery-Pearlescent-Exclusive%2Fdp%2FB09R41HWR6%2Fref%3Dsr_1_3_sspa%3Fcrid%3D3TXS5XGHTCW2G%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711015968%26sprefix%3Dhasb%252Caps%252C308%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDA3NzI5NjMwMTQ5ODo6MDo6&amp;url=%2FMonopoly-Sparkle-Glittery-Pearlescent-Exclusive%2Fdp%2FB09R41HWR6%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly: Wrestlemania Edition Board Game for Ages 8 and up, Monopoly Game Inspired by WWE Wrestlemania, Family Games for 2-6 Players, Kids Games</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Wrestlemania-Inspired-Family-Players/dp/B0BYKDLP1G/ref=sr_1_9?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Monopoly-Wrestlemania-Inspired-Family-Players/dp/B0BYKDLP1G/ref=sr_1_9?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Monopoly Junior Super Mario Edition Board Game, Fun Kids' Ages 5 and Up, Explore The Mushroom Kingdom as Mario, Peach, Yoshi, or Luigi (Amazon Exclusive)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0ODk0NjY5NjM3MzkyMDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA1NTA5MjY3NzM5ODo6MDo6&amp;url=%2FMonopoly-Explore-Mushroom-Kingdom-Exclusive%2Fdp%2FB09D44P9HK%2Fref%3Dsxin_23_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.8JiAL4QBVB_u63_7Msg55bL1961jRjXjRZMAKfOkqzJJwZhRW0bg0sNZhCirtZQKY8LFQgocBrfjZNkNlOu09g.k541XYBRAwIjp4nJaJ0RIMkOUZYRwZhmrijHZ6d0nTw%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB09D44P9HK%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3DFKQ9L%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Dungeons &amp; Dragons: Honor Among Thieves Game, Inspired by The D&amp;D Movie, Monopoly D&amp;D Board Game for 2-5 Players, Ages 8 and Up</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Dungeons-Dragons-Thieves-Inspired/dp/B0BFG3HD18/ref=sr_1_13?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-13</t>
+    <t>https://www.amazon.com/Monopoly-Dungeons-Dragons-Thieves-Inspired/dp/B0BFG3HD18/ref=sr_1_14?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-14</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Board Game, 2-Sided Gameboard, 2 Games in 1, Monopoly Game for Younger Kids Ages 4 and Up, Kids Games for 2 to 6 Players</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjY2NDg4MzM5MTc1MDgwOjE3MTEwMTU5Njg6c3BfYXRmOjIwMDE2ODE0MzY5NjI5ODo6MDo6&amp;url=%2FMonopoly-2-Sided-Gameboard-Younger-Players%2Fdp%2FB0BGT7Y58V%2Fref%3Dsr_1_4_sspa%3Fcrid%3D3TXS5XGHTCW2G%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711015968%26sprefix%3Dhasb%252Caps%252C308%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-2-Sided-Gameboard-Younger-Players/dp/B0BGT7Y58V/ref=sr_1_12?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-12</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDE2ODE0MzY5NjI5ODo6MDo6&amp;url=%2FMonopoly-2-Sided-Gameboard-Younger-Players%2Fdp%2FB0BGT7Y58V%2Fref%3Dsr_1_4_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Monopoly-2-Sided-Gameboard-Younger-Players/dp/B0BGT7Y58V/ref=sr_1_10?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-10</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior: Peppa Pig Edition Board Game for 2-4 Players, Indoor Games for Kids, Peppa Pig Toys and Games, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NzcyMDE1NDk5NzExMDgwOjE3MTEwMTU5Njg6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MjA5ODo6Mjo6&amp;url=%2FHasbro-Gaming-Monopoly-Junior-Exclusive%2Fdp%2FB08JM87J5F%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3TXS5XGHTCW2G%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB08JM87J5F%26pd_rd_r%3D1336774d-d300-47f9-be41-1325aa880ffc%26pd_rd_w%3DVtMqP%26pd_rd_wg%3DnwLFg%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D47R3XJ4VW3HBDFAX0YQ0%26qid%3D1711015968%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C308%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MjA5ODo6Mjo6&amp;url=%2FHasbro-Gaming-Monopoly-Junior-Exclusive%2Fdp%2FB08JM87J5F%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB08JM87J5F%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Dinosaur Edition Board Game, 2-4 Players, with Dino-Themed Toy Tokens, Kids Easter Basket Stuffers, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Junior-Exclusive/dp/B08TPWZ5GN/ref=sr_1_21?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Junior-Exclusive/dp/B08TPWZ5GN/ref=sr_1_21?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-21</t>
   </si>
   <si>
     <t>Monopoly Hasbro Gaming Junior: Unicorn Edition Board Game, 2-4 Players, Magical-Themed Indoor Game, Kids Easter Basket Stuffers, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NzcyMDE1NDk5NzExMDgwOjE3MTEwMTU5Njg6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDExMzAwMTI3Nzk5ODo6MDo6&amp;url=%2FMonopoly-Junior-Unicorn-Magical-Themed-Exclusive%2Fdp%2FB089GYBVSF%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3TXS5XGHTCW2G%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB089GYBVSF%26pd_rd_r%3D1336774d-d300-47f9-be41-1325aa880ffc%26pd_rd_w%3DVtMqP%26pd_rd_wg%3DnwLFg%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D47R3XJ4VW3HBDFAX0YQ0%26qid%3D1711015968%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C308%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MTc5ODo6MDo6&amp;url=%2FMonopoly-Junior-Unicorn-Magical-Themed-Exclusive%2Fdp%2FB089GYBVSF%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB089GYBVSF%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior: Marvel Spidey and His Amazing Friends Edition Board Game for Kids Ages 5+, with Artwork from The Animated Series, Kids Board Games</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NzcyMDE1NDk5NzExMDgwOjE3MTEwMTU5Njg6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE3NTIwNjY0NzI5ODo6MTo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3TXS5XGHTCW2G%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BHXB9Q8J%26pd_rd_r%3D1336774d-d300-47f9-be41-1325aa880ffc%26pd_rd_w%3DVtMqP%26pd_rd_wg%3DnwLFg%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D47R3XJ4VW3HBDFAX0YQ0%26qid%3D1711015968%26sbo%3D9ZOMT9Jm0JH%252Ft%252BWi68iDSA%253D%253D%26sprefix%3Dhasb%252Caps%252C308%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE3NTIwNjY0NzI5ODo6MTo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BHXB9Q8J%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3D9ZOMT9Jm0JH%252Ft%252BWi68iDSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Chance Board Game for Adults and Kids | Fast-Paced Family Party Game | Ages 8+ | 2-4 Players | 20 Mins. Average</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Chance-Fast-Paced-Players-Average/dp/B0BS76J789/ref=sr_1_10?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Spidey-Friends/dp/B0BHXB9Q8J/ref=sr_1_16?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjY2NDg4MzM5MTc1MDgwOjE3MTEwMTU5Njg6c3BfbXRmOjIwMDE3NTIwNjY0NzI5ODo6MDo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3TXS5XGHTCW2G%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711015968%26sprefix%3Dhasb%252Caps%252C308%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Monopoly-Chance-Fast-Paced-Players-Average/dp/B0BS76J789/ref=sr_1_11?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Spidey-Friends/dp/B0BHXB9Q8J/ref=sr_1_16?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfbXRmOjIwMDE3NTIwNjY0NzI5ODo6MDo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsr_1_17_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Trucks Edition Board Game for Kids Ages 5+, 2-4 Player Kids Games</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3NzcyMDE1NDk5NzExMDgwOjE3MTEwMTU5Njg6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE2ODE0MzY5NjQ5ODo6Mzo6&amp;url=%2FHasbro-Gaming-F8029-Monopoly-Junior%2Fdp%2FB0BFG31ZP4%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3TXS5XGHTCW2G%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BFG31ZP4%26pd_rd_r%3D1336774d-d300-47f9-be41-1325aa880ffc%26pd_rd_w%3DVtMqP%26pd_rd_wg%3DnwLFg%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D47R3XJ4VW3HBDFAX0YQ0%26qid%3D1711015968%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C308%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-F8029-Monopoly-Junior/dp/B0BFG31ZP4/ref=sr_1_14?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-14</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE2ODE0MzY5NjQ5ODo6Mzo6&amp;url=%2FHasbro-Gaming-F8029-Monopoly-Junior%2Fdp%2FB0BFG31ZP4%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BFG31ZP4%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hasbro-Gaming-F8029-Monopoly-Junior/dp/B0BFG31ZP4/ref=sr_1_13?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-13</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Bid Game,Quick-Playing Card Game for 4 Players,Game for Families and Kids Ages 7 and Up</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyNjY2NDg4MzM5MTc1MDgwOjE3MTEwMTU5Njg6c3BfbXRmOjIwMDE3NTE5Njg0NzE5ODo6MDo6&amp;url=%2FMonopoly-Game-Quick-Playing-Players-Families%2Fdp%2FB08GXCD8BN%2Fref%3Dsr_1_18_sspa%3Fcrid%3D3TXS5XGHTCW2G%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711015968%26sprefix%3Dhasb%252Caps%252C308%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-Game-Quick-Playing-Players-Families/dp/B08GXCD8BN/ref=sr_1_22?crid=3TXS5XGHTCW2G&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-si3XH4z2M57T-saAPxG_0dh8IWJfRns0I9fIhXY6HV7QprRao_YdRhaMg3Xy3ktJPkQh9Jb9Xa447qKVPm4y9_69pI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.20gyoUkHDAJ9w-O5TxFctREmt_faTtoyTI0AZYLPE9U&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711015968&amp;sprefix=hasb%2Caps%2C308&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Monopoly-Game-Quick-Playing-Players-Families/dp/B08GXCD8BN/ref=sr_1_22?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-22</t>
   </si>
   <si>
     <t>Chef Works Unisex Berkeley Chef Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Chef-Works-Berkeley-Chefs-Apron/dp/B078VY8KS1/ref=sr_1_17?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-17</t>
+    <t>https://www.amazon.com/Chef-Works-Berkeley-Chefs-Apron/dp/B078VY8KS1/ref=sr_1_17?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-17</t>
   </si>
   <si>
     <t>Chef Works Unisex Memphis Bib Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMTUyOTQ4MDQ5OTM1MDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE0MjEzOTYzMTU5ODo6Mzo6&amp;url=%2FChef-Works-Unisex-Memphis-Apron%2Fdp%2FB00O8L9HIS%2Fref%3Dsxin_12_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzvyTDy7DvVUqWu1EWVhpi0tWmU31rJwrnmrWBvivAWrw.0jPePgxesCTktopKl97apiggayl8yXLHWahjTABhZAM%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB00O8L9HIS%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DhOEkI%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE0MjEzOTYzMTU5ODo6Mzo6&amp;url=%2FChef-Works-Unisex-Memphis-Apron%2Fdp%2FB00O8L9HIS%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB00O8L9HIS%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Tarpop 24 Pack Bib Aprons Unisex Commercial Apron Resistant Apron Kitchen BBQ Crafting Aprons for Women Men Chef (Black)</t>
+  </si>
+  <si>
+    <t>2.8 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMxNjU3NTg2Mjk4OjowOjo&amp;url=%2FAprons-Commercial-Resistant-Kitchen-Crafting%2Fdp%2FB09L83BY53%2Fref%3Dsr_1_22_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hudson Durable Goods - Heavy Duty Waxed Canvas Work Apron - Grey</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMTUyOTQ4MDQ5OTM1MDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTU1MTo6MTo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsxin_12_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzvyTDy7DvVUqWu1EWVhpi0tWmU31rJwrnmrWBvivAWrw.0jPePgxesCTktopKl97apiggayl8yXLHWahjTABhZAM%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB071R16Y5N%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DhOEkI%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjIwMDAzMDEyMTIxNTU1MTo6MDo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsr_1_14_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTU1MTo6MTo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB071R16Y5N%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Works Unisex Dorset Bib Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjIwMDAyOTM5NDQ3NTY5ODo6MDo6&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsr_1_21_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAyOTM5NDQ3NTY5ODo6MDo6&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01C02METK%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMwMTIxMjE1NTUxOjowOjo&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsr_1_14_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDI5Mzk0NDc1Njk4OjowOjo&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hudson Durable Goods - Professional Grade Chef Apron for Kitchen, BBQ &amp; Grill</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjIwMDAzMDEyMTIxNjI1MTo6MDo6&amp;url=%2FHudson-Durable-Goods-Kitchen-Adjustable%2Fdp%2FB075QX6L1B%2Fref%3Dsr_1_13_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hudson-Durable-Goods-Professional-Adjustable/dp/B01MTXPN0E/ref=sr_1_16?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-16</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMwMTIxMjE2MjUxOjowOjo&amp;url=%2FHudson-Durable-Goods-Kitchen-Adjustable%2Fdp%2FB075QX6L1B%2Fref%3Dsr_1_13_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTA1MTo6NDo6&amp;url=%2FHudson-Durable-Goods-Professional-Adjustable%2Fdp%2FB01MTXPN0E%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01MTXPN0E%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hudson-Durable-Goods-Professional-Adjustable/dp/B01MTXPN0E/ref=sr_1_16?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-16</t>
   </si>
   <si>
     <t>Syntus 12 Pack Bib Apron, Unisex Aprons Adjustable Waterdrop Resistant with 2 Pockets Cooking Kitchen Apron for Chef, BBQ Drawing Apron Bulk, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Syntus-Adjustable-Waterdrop-Resistant-Pockets/dp/B07S9QTPGH/ref=sr_1_18?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Syntus-Adjustable-Waterdrop-Resistant-Pockets/dp/B07S9QTPGH/ref=sr_1_18?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-18</t>
   </si>
   <si>
     <t>Aprons - Cross Back&amp;Adjustable Dupont paper Apron for Men and Women With Pockets</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjMwMDE1NDI5NDkwNTUwMjo6MDo6&amp;url=%2FMIKI-WELL-Chef-Aprons-Adjustable%2Fdp%2FB0CRDP5S8G%2Fref%3Dsr_1_20_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMTU0Mjk0OTA1NTAyOjowOjo&amp;url=%2FMIKI-WELL-Chef-Aprons-Adjustable%2Fdp%2FB0CRDP5S8G%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cooking Apron For Men Chefs Apron Denim Apron For Grill Masters Pros &amp; Chefs Utility Apron Jewelers Apron Barista</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfYXRmOjIwMDA5MDcwMzY1NDMyMTo6MDo6&amp;url=%2FCooking-Kitchen-Masters-Utility-Jewelers%2Fdp%2FB08H5WF1S6%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MjAwMDkwNzAzNjU0MzIxOjowOjo&amp;url=%2FCooking-Kitchen-Masters-Utility-Jewelers%2Fdp%2FB08H5WF1S6%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cross Back Kitchen Apron with Pockets Cooking Apron for Men and Women – Striped Cotton Canvas Chef Apron Bib</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfYXRmOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMTUyOTQ4MDQ5OTM1MDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsxin_12_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzvyTDy7DvVUqWu1EWVhpi0tWmU31rJwrnmrWBvivAWrw.0jPePgxesCTktopKl97apiggayl8yXLHWahjTABhZAM%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C1Y9HNXJ%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DhOEkI%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>GREEN LIFESTYLE 2 Pack Waterproof Rubber Vinyl Apron, Heavy Duty Chemical Resistant Work Apron, Waterproof Aprons for Dishwashing, Unisex Lab Apron, Butcher Apron (Black)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjMwMDEwODQ4MDQ4MTgwMjo6MDo6&amp;url=%2FGREEN-LIFESTYLE-Waterproof-Resistant-Dishwashing%2Fdp%2FB0CNW5H94P%2Fref%3Dsr_1_19_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MzAwMDE3NzQ4MTYxMDAyOjowOjo&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsr_1_1_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C1Y9HNXJ%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Apron-Cross Back Apron for Men Women with Adjustable Straps and Large Pockets,Canvas,M-XXL,Black</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RKK9vI8KqJhOIrfNexA3VasAAAGOYH_jDgEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICDQ6TIi/https://www.amazon.com/Apron-Adjustable-Straps-Pockets-Canvas/dp/B07ZKWMPFD/ref=sxin_13_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2F4Q86Z7OUH8X&amp;cv_ct_cx=Chef+Apron&amp;dib=eyJ2IjoiMSJ9.SJU70dEPIaHAZYzAphV9Xw.R7OBeVxqod6IGxYQ9qA1--vJOFP2SOcGuwbIV0RMGuk&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;pd_rd_i=B07ZKWMPFD&amp;pd_rd_r=b310dd69-609b-4429-b764-e808cd016de7&amp;pd_rd_w=VIqU6&amp;pd_rd_wg=M5Py0&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=2RM6JB3X55Y4SXW5N0ZW&amp;qid=1711015977&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=che%2Caps%2C305&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RNmsisQmFwXRD4EJh89z8_AAAAGOYIlttwEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICAaYW8Q/https://www.amazon.com/Apron-Adjustable-Straps-Pockets-Canvas/dp/B07ZKWMPFD/ref=sxin_12_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3CJL40W60GIKX&amp;cv_ct_cx=Chef+Apron&amp;dib=eyJ2IjoiMSJ9.SJU70dEPIaHAZYzAphV9Xw.R7OBeVxqod6IGxYQ9qA1--vJOFP2SOcGuwbIV0RMGuk&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;pd_rd_i=B07ZKWMPFD&amp;pd_rd_r=196a92c7-a2aa-4cf3-b25e-5ed9f18e280c&amp;pd_rd_w=as9kD&amp;pd_rd_wg=Y0dlH&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=5CADAXSVRWNMZMQ6MM7N&amp;qid=1711016603&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=chef%2Caps%2C313&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
   </si>
   <si>
     <t>Nail Apron Beauty Aprons for Women Cooking Baking Kitchen BBQ Chef Bib Aprons Unisex Adjustable Neck Strap with 2 Pockets WQDWSS200</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTMyNTEzNDM2MjMxMDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjo6NDpCMEMzWkhDSktCOnNlYXJjaA&amp;url=%2FSSCSTS-Cooking-Kitchen-Adjustable-WQDWSS200%2Fdp%2FB0C3ZHCJKB%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.CUV--39hwj9jPwAivdX3s0YQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.CMCRprYEiXxLNJTVC2_R6LovkdnLLPcH_oAj9Pl9ltg%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C3ZHCJKB%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DmEGyF%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6NDpCMEMzWkhDSktCOnNlYXJjaA&amp;url=%2FSSCSTS-Cooking-Kitchen-Adjustable-WQDWSS200%2Fdp%2FB0C3ZHCJKB%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C3ZHCJKB%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDgyMzAxOTIxNzExOjowOjo&amp;url=%2FApron-Adjustable-Straps-Pockets-Canvas%2Fdp%2FB07ZKWMPFD%2Fref%3Dsr_1_21_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>NLUS 2 Pack Kitchen Cooking Aprons, Adjustable Bib Soft Chef Apron with 2 Pockets for Men Women(Black/Brown Stripes)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kitchen-Cooking-Adjustable-Pockets-Stripes/dp/B08F79GXXM/ref=sr_1_8?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Chef Apron, Aprons for Men,Adjustable Strap Cotton Canvas Cross Back Apron for Kitchen Cooking Baking Bib Apron</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMTUyOTQ4MDQ5OTM1MDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDExNDQ4MzA4OTc5ODo6NDo6&amp;url=%2FJINSHANGTOPK-Adjustable-Pockets-Kitchen-Cooking%2Fdp%2FB0BGFJ9QGR%2Fref%3Dsxin_12_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzvyTDy7DvVUqWu1EWVhpi0tWmU31rJwrnmrWBvivAWrw.0jPePgxesCTktopKl97apiggayl8yXLHWahjTABhZAM%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0BGFJ9QGR%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DhOEkI%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Maison d' Hermine 100% Cotton Kitchen Apron with an Adjustable Neck with Long Ties for Women Men Chef</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTMyNTEzNDM2MjMxMDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NzgwOTkxMzcwMjo6MDo6&amp;url=%2FMaison-Hermine-Colmar-adjustable-visible%2Fdp%2FB01CHRY20W%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.CUV--39hwj9jPwAivdX3s0YQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.CMCRprYEiXxLNJTVC2_R6LovkdnLLPcH_oAj9Pl9ltg%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01CHRY20W%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DmEGyF%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/Kitchen-Cooking-Adjustable-Pockets-Stripes/dp/B08F79GXXM/ref=sr_1_8?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-8</t>
   </si>
   <si>
     <t>Chef Works Unisex Bistro Chef Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjMwMDA3MjEwOTE1NTQwMjo6MDo6&amp;url=%2FChef-Works-Bistro-32-Inch-Length%2Fdp%2FB002JM16DM%2Fref%3Dsr_1_11_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMDcyMTA5MTU1NDAyOjowOjo&amp;url=%2FChef-Works-Bistro-32-Inch-Length%2Fdp%2FB002JM16DM%2Fref%3Dsr_1_11_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Aprons for Men Women, Cotton Canvas Cross Back Adjustable Apron with Large Pockets for Kitchen Garden Salon, Size M to XXL (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMTUyOTQ4MDQ5OTM1MDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0Nzc4NjM4MTUwMjo6Mjo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsxin_12_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzvyTDy7DvVUqWu1EWVhpi0tWmU31rJwrnmrWBvivAWrw.0jPePgxesCTktopKl97apiggayl8yXLHWahjTABhZAM%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C88Y2FG9%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DhOEkI%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjMwMDE0Nzc4NjM4MTUwMjo6MDo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bluegogo-Aprons-Adjustable-Pockets-Kitchen/dp/B0C88Y2FG9/ref=sr_1_15?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-15</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0Nzc4NjM4MTUwMjo6Mjo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C88Y2FG9%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMTQ3Nzg2MzgxNTAyOjowOjo&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsr_1_12_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bluegogo-Aprons-Adjustable-Pockets-Kitchen/dp/B0C88Y2FG9/ref=sr_1_15?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-15</t>
   </si>
   <si>
     <t>Apron for Men Women with Adjustable Straps and Large Pockets, Canvas Cotton Cooking Kitchen Chef Bib Aprons Waterproof Green</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Adjustable-Pockets-Cooking-Waterproof-2726inch/dp/B096SP8Z1R/ref=sr_1_23?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Adjustable-Pockets-Cooking-Waterproof-2726inch/dp/B096SP8Z1R/ref=sr_1_23?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-23</t>
   </si>
   <si>
     <t>Chef Works Unisex Butcher Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfYXRmOjMwMDAwMjU2MjQyMDgwMjo6MDo6&amp;url=%2FChef-Works-Butcher-Length-24-Inch%2Fdp%2FB002JM16AK%2Fref%3Dsr_1_3_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Chef-Works-Unisex-Butcher-Apron/dp/B00A8V2I6K/ref=sr_1_10?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-10</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MzAwMDAyNTYyNDIwODAyOjowOjo&amp;url=%2FChef-Works-Butcher-Length-24-Inch%2Fdp%2FB002JM16AK%2Fref%3Dsr_1_3_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chef-Works-Unisex-Butcher-Apron/dp/B00A8V2I6K/ref=sr_1_10?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-10</t>
   </si>
   <si>
     <t>Will Well Chef Apron for Men and Women Professional for Cooking With Pockets - Adjustable - Bib Aprons - Water &amp; Oil Resistant - 1 Pack, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Will-Well-Adjustable-Resistant-Cooking/dp/B0825R55PT/ref=sr_1_7?crid=2F4Q86Z7OUH8X&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711015977&amp;sprefix=che%2Caps%2C305&amp;sr=8-7</t>
+    <t>https://www.amazon.com/Will-Well-Adjustable-Resistant-Cooking/dp/B0825R55PT/ref=sr_1_7?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-7</t>
   </si>
   <si>
     <t>Funny Apron for Men, Cooking Chef Apron with Pockets, Adjustable Size, Creative Gifts for Boyfriend, Dad, Husband, Grandpa</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTMyNTEzNDM2MjMxMDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MjpCMENCV1FWOUIxOnNlYXJjaA&amp;url=%2FDebuosim-Cooking-Adjustable-Creative-Boyfriend%2Fdp%2FB0CBWQV9B1%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.CUV--39hwj9jPwAivdX3s0YQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.CMCRprYEiXxLNJTVC2_R6LovkdnLLPcH_oAj9Pl9ltg%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0CBWQV9B1%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DmEGyF%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MjpCMENCV1FWOUIxOnNlYXJjaA&amp;url=%2FDebuosim-Cooking-Adjustable-Creative-Boyfriend%2Fdp%2FB0CBWQV9B1%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0CBWQV9B1%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Grill Master Apron for Men with Pockets, Mens Aprons for Grilling Cooking BBQ, Birthday Gifts for Chef Dad Husband</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTMyNTEzNDM2MjMxMDgwOjE3MTEwMTU5Nzc6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MzpCMEM4UzJROUtNOnNlYXJjaA&amp;url=%2FPockets-Grilling-Husband-Fathers-Birthday%2Fdp%2FB0C8S2Q9KM%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2F4Q86Z7OUH8X%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.CUV--39hwj9jPwAivdX3s0YQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.CMCRprYEiXxLNJTVC2_R6LovkdnLLPcH_oAj9Pl9ltg%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C8S2Q9KM%26pd_rd_r%3Db310dd69-609b-4429-b764-e808cd016de7%26pd_rd_w%3DmEGyF%26pd_rd_wg%3DM5Py0%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D2RM6JB3X55Y4SXW5N0ZW%26qid%3D1711015977%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C305%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>LittleMax Chef Apron for Men Women,Cross Back Strap Apron with Pockets Cotton Canvas Work Apron for Kitchen Cooking BBQ M-XXL</t>
-  </si>
-  <si>
-    <t>4.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjE4MjM0MzczOTA1MDgwOjE3MTEwMTU5Nzc6c3BfbXRmOjMwMDE0MjQ0MzgwMjIwMjo6MDo6&amp;url=%2FLittleMax-Pockets-Adjustable-Kitchen-Cooking%2Fdp%2FB0C3QV51L4%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2F4Q86Z7OUH8X%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3Aita5gzw34IjhLrsc13EjKOFBSdZH-nvZVwALS39Ac6uU8VNsdY6oz3IBYYtTWwZicK4Gp5OT1G_niPR9SdJmzotkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw._N7VGXfOL61I6jBvPWxGndZ9smKVwZYHEUZIu8OJpo4%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711015977%26sprefix%3Dche%252Caps%252C305%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MzpCMEM4UzJROUtNOnNlYXJjaA&amp;url=%2FPockets-Grilling-Husband-Fathers-Birthday%2Fdp%2FB0C8S2Q9KM%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C8S2Q9KM%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
 </sst>
 </file>
@@ -798,14 +798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5341FBDE-9170-4A68-96AC-76374D7002ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D55A87-6745-4238-9DC4-B5155FC6230B}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="163.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -832,7 +832,7 @@
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3">
         <v>52</v>
@@ -844,12 +844,12 @@
         <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <v>39</v>
@@ -861,29 +861,29 @@
         <v>862</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3">
-        <v>10211</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>31</v>
@@ -895,12 +895,12 @@
         <v>10211</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3">
         <v>31</v>
@@ -912,267 +912,267 @@
         <v>243</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3">
+        <v>10211</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>243</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
         <v>7048</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="E9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D10" s="3">
         <v>7048</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="3">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4524</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="3">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7048</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4524</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D14" s="3">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D15" s="3">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="3">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7268</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="3">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7296</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3">
-        <v>6409</v>
+        <v>7296</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="3">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="3">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="3">
-        <v>7026</v>
+        <v>7296</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>832</v>
+        <v>6409</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3">
-        <v>126</v>
+        <v>832</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3">
         <v>13</v>
@@ -1184,12 +1184,12 @@
         <v>126</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B23" s="3">
         <v>13</v>
@@ -1201,46 +1201,46 @@
         <v>126</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>126</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>435</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="3">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2314</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3">
         <v>11</v>
@@ -1252,7 +1252,7 @@
         <v>2314</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -1260,38 +1260,38 @@
         <v>117</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>11901</v>
+        <v>2314</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>5</v>
+        <v>11901</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
@@ -1300,24 +1300,24 @@
         <v>17</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="3">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>125</v>
@@ -1329,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1B6F6D-0750-4F43-AC4C-4ACD684F207C}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F30F5-F61A-4086-A693-E82C27AE006F}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="156.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="163.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1383,21 +1383,21 @@
         <v>43</v>
       </c>
       <c r="B3" s="1">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1">
-        <v>13427</v>
+        <v>2768</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>27</v>
@@ -1409,27 +1409,27 @@
         <v>13427</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>451</v>
+        <v>13427</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1437,10 +1437,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
@@ -1451,30 +1451,30 @@
         <v>50</v>
       </c>
       <c r="B7" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="1">
-        <v>105</v>
+        <v>1492</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>53</v>
@@ -1482,50 +1482,50 @@
     </row>
     <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>249</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1">
-        <v>105</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="1">
-        <v>1709</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="1">
-        <v>3555</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>58</v>
@@ -1536,36 +1536,36 @@
         <v>59</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1">
-        <v>8481</v>
+        <v>1709</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>288</v>
+        <v>3555</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -1573,18 +1573,18 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>318</v>
+        <v>8481</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1596,12 +1596,12 @@
         <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -1610,78 +1610,95 @@
         <v>27</v>
       </c>
       <c r="D16" s="1">
+        <v>318</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
         <v>288</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>288</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="1">
         <v>186</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1">
-        <v>186</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1645</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1">
+        <v>186</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>1645</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B0C05F-B9CA-48EA-863B-C77BF5D4799C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0566C-BA8D-46CD-AA6F-D2C89A0ABB7C}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1988,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABB1499-427D-4012-BBF9-96696D6208CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7D0BE1-E383-478D-9A6B-4718D7A65315}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/Kim.xlsx
+++ b/Data/Output/Kim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Panda\Documents\UiPath\Final Project\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB60FB7D-8286-4E53-85EB-36D579488638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A1F3BF-7402-4794-A3C9-953526E23787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{533B41AE-79C4-45B3-8985-3CDA034489EC}"/>
+    <workbookView xWindow="1335" yWindow="2430" windowWidth="12120" windowHeight="15555" xr2:uid="{06EC39F9-E251-4564-BA8C-4A6A8E9CF53D}"/>
   </bookViews>
   <sheets>
     <sheet name="Chef Apron" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -54,367 +54,349 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Nike Men's Lebron Witness IV</t>
+    <t>Nike mens Lebron Witness 5</t>
+  </si>
+  <si>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-Lebron-Witness-CQ9380/dp/B0BCGHCJKQ/ref=sr_1_11?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Nike mens Lebron Witness 6</t>
+  </si>
+  <si>
+    <t>4.6 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Basketball-Trainers-Sneakers-Black-Anthracite-Volt/dp/B0BRXDRSY1/ref=sr_1_1?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>Nike NIKE Lebron Witness 7 Basketball Shoes Adult DM1123-501 (Vivid Purple/), Size 7.5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-DM1123-501/dp/B0CMV8SZJQ/ref=sr_1_15?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Nike unisex-adult Lebron Witness 7 Basketball Shoes</t>
+  </si>
+  <si>
+    <t>4.1 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8WGVR7/ref=sr_1_25?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 Grey Fog/Hyper Pink</t>
+  </si>
+  <si>
+    <t>5.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ3XS5K/ref=sr_1_9?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Lebron Witness 7 Basketball Shoes Size</t>
   </si>
   <si>
     <t>4.5 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTM3ODk1ODE0NjM2MDgwOjE3MTEwMTY1OTM6c3BfYXRmOjMwMDE0NjI3ODk0ODkwMjo6MDo6&amp;url=%2FNike-Lebron-Witness-Basketball-Anthracite%2Fdp%2FB07Q75LXCK%2Fref%3Dsr_1_1_sspa%3Fcrid%3DUFXBKHWHW45E%26dib%3DeyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs%26dib_tag%3Dse%26keywords%3DLebron%2BWitness%26qid%3D1711016593%26sprefix%3Dlebr%252Caps%252C312%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Nike mens Lebron Witness 5</t>
-  </si>
-  <si>
-    <t>4.4 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-Lebron-Witness-CQ9380/dp/B0BCGHCJKQ/ref=sr_1_16?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Nike mens Lebron Witness 6</t>
-  </si>
-  <si>
-    <t>4.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Basketball-Trainers-Sneakers-Black-Anthracite-Volt/dp/B0BRXDRSY1/ref=sr_1_2?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>Nike NIKE Lebron Witness 7 Basketball Shoes Adult DM1123-501 (Vivid Purple/), Size 7.5</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-DM1123-501/dp/B0CMV8SZJQ/ref=sr_1_15?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 Grey Fog/Hyper Pink</t>
-  </si>
-  <si>
-    <t>5.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ3XS5K/ref=sr_1_11?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>Nike unisex-adult Lebron Witness 7 Basketball Shoes</t>
-  </si>
-  <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8WGVR7/ref=sr_1_23?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Lebron Witness 7 Basketball Shoes Size</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Lebron-Witness-Basketball-Shoes-Size/dp/B0BXQ4PBSQ/ref=sr_1_14?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Lebron-Witness-Basketball-Shoes-Size/dp/B0BXQ4PBSQ/ref=sr_1_12?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-12</t>
   </si>
   <si>
     <t>Nike mens Lebron Witness 7 Basketball Shoes</t>
   </si>
   <si>
+    <t>4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Black-Sea/dp/B0CGKH27FS/ref=sr_1_5?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness 7 VII Unisex Basketball Shoes Vivid Purple/Sea Coral/Oxygen Size 9.5M/11W</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Unisex-Basketball/dp/B0CD65Z6SW/ref=sr_1_19?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>4.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Basketball-DM1123-100-us_Footwear_Size_System-Numeric_10/dp/B0BX8WNWBW/ref=sr_1_8?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness Basketball Shoes</t>
+  </si>
+  <si>
+    <t>4.8 out of 5 stars</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8ZNCGT/ref=sr_1_26?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 White/Metallic Silver-black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8WJPS1/ref=sr_1_13?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness 7 Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BYVMGD6R/ref=sr_1_16?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-16</t>
+  </si>
+  <si>
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Black-Sea/dp/B0CGKH27FS/ref=sr_1_6?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>4.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Basketball-DM1123-100-us_Footwear_Size_System-Numeric_10/dp/B0BX8WNWBW/ref=sr_1_9?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness 7 VII Unisex Basketball Shoes Vivid Purple/Sea Coral/Oxygen Size 9.5M/11W</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Unisex-Basketball/dp/B0CD65Z6SW/ref=sr_1_17?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness 7 Basketball Shoes Size - 8.5 Grey Fog/Hyper Pink</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BXQ32DZM/ref=sr_1_26?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-26</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness Basketball Shoes</t>
-  </si>
-  <si>
-    <t>4.8 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8ZNCGT/ref=sr_1_24?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness 7 Basketball Shoes Size - 9.5 White/Metallic Silver-black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BX8WJPS1/ref=sr_1_13?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8XVDXT/ref=sr_1_7?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BYVQGDGV/ref=sr_1_12?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Basketball-Alligator-us_Footwear_Size_System-Numeric_10/dp/B0BV1L366Y/ref=sr_1_5?crid=UFXBKHWHW45E&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDADAw-wnUPJlQQXuo7YrNfF_TL5WTU2gv9Nfv31LVLLp0_4d8FgbvLG5JK0-1jCP3i-xruniy7a0w3UrpLJM8q2Qfu0sOvmezMPKXUFW11BiCdLquNPY-x6zaAXbT9Okp7Te2bFZwzui_9DUr2JK1ozoA24f-nUi6f6E_s-k7GohFrzOzwf-Hd8vxwpGEfLKAI.TPr0wlLviFMf4SQvRfH0wlnqVfas8nAWsf8zFGXrXWs&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711016593&amp;sprefix=lebr%2Caps%2C312&amp;sr=8-5</t>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Metallic-Silver-Black/dp/B0BX8XVDXT/ref=sr_1_6?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Shoes/dp/B0BYVQGDGV/ref=sr_1_14?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Basketball-Alligator-us_Footwear_Size_System-Numeric_10/dp/B0BV1L366Y/ref=sr_1_4?crid=1PKRVY7YVTZ99&amp;dib=eyJ2IjoiMSJ9.Hi0MG5NbUDZ_1SLu-VZ4uqwDkGssBVlnSNtbmWjyxpz6KJQfhvTNoHpztlYtLEWtjBwYa3Hx7NpksBaSuyFz8y1bktROjLAOvUi0JZx_DDBVN-1JZ5dOthw1gGwlbaA6IyFWf9ZtA6oRb4Kr_H0LwyHWjUnRCB0QMCX_yMpGFQsgQiefLywlUQhzLX09oIeIxsYz5CIoKvtaSDXFlwqNB9Eaq3D3q8cUlFxl3d6y-Idqq_e5ZFFJ6QSj6y7IiFc68ueOPP2NstTuldsjxEoy8M7x6ltb-vmM3NS5NsJ5TK0.FrNDUJBAHMu2amm4RKbIK-_vStIsvTMY2lV2UV2JzIU&amp;dib_tag=se&amp;keywords=Lebron+Witness&amp;qid=1711024598&amp;sprefix=lebr%2Caps%2C323&amp;sr=8-4</t>
   </si>
   <si>
     <t>Monopoly Hasbro 100th Anniversary Edition</t>
   </si>
   <si>
-    <t>https://www.amazon.com/WS-Game-Company-Monopoly-Anniversary/dp/B0CCZFBYN5/ref=sr_1_8?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-8</t>
+    <t>https://www.amazon.com/WS-Game-Company-Monopoly-Anniversary/dp/B0CCZFBYN5/ref=sr_1_8?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-8</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly: The Lord of The Rings Edition Board Game Inspired by The Movie Trilogy, Play as a Member of The Fellowship, for Kids Ages 8 and Up (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfbXRmOjIwMDA4NTc0Nzc2ODU5ODo6MDo6&amp;url=%2FHasbro-Games-Monopoly-Fellowship-Exclusive%2Fdp%2FB08K1BRGHC%2Fref%3Dsr_1_19_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjkzNjQ1ODQ1NDU3MDgwOjE3MTEwMjQ2MTE6c3BfbXRmOjIwMDA4NTc0Nzc2ODU5ODo6MDo6&amp;url=%2FHasbro-Games-Monopoly-Fellowship-Exclusive%2Fdp%2FB08K1BRGHC%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3J9YIYTRQE2JA%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711024611%26sprefix%3Dhasb%252Caps%252C354%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Ultimate Banking Edition Board Game for Families and Kids Ages 8 and Up, Electronic Banking Unit (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDAzMTM2MzE0Njg5ODo6MDo6&amp;url=%2FMonopoly-Ultimate-Banking-Board-Game%2Fdp%2FB01ALHAMTK%2Fref%3Dsr_1_2_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-Ultimate-Banking-Board-Game/dp/B01ALHAMTK/ref=sr_1_12?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-12</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjkzNjQ1ODQ1NDU3MDgwOjE3MTEwMjQ2MTE6c3BfYXRmOjIwMDAzMTM2MzE0Njg5ODo6MDo6&amp;url=%2FMonopoly-Ultimate-Banking-Board-Game%2Fdp%2FB01ALHAMTK%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3J9YIYTRQE2JA%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711024611%26sprefix%3Dhasb%252Caps%252C354%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Monopoly-Ultimate-Banking-Board-Game/dp/B01ALHAMTK/ref=sr_1_10?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-10</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Sparkle Edition Board Game, Family Games, with Glittery Tokens, Pearlescent Dice, Sparkly Look, (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDA3NzI5NjMwMTQ5ODo6MDo6&amp;url=%2FMonopoly-Sparkle-Glittery-Pearlescent-Exclusive%2Fdp%2FB09R41HWR6%2Fref%3Dsr_1_3_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjkzNjQ1ODQ1NDU3MDgwOjE3MTEwMjQ2MTE6c3BfYXRmOjIwMDA3NzI5NjMwMTQ5ODo6MDo6&amp;url=%2FMonopoly-Sparkle-Glittery-Pearlescent-Exclusive%2Fdp%2FB09R41HWR6%2Fref%3Dsr_1_3_sspa%3Fcrid%3D3J9YIYTRQE2JA%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711024611%26sprefix%3Dhasb%252Caps%252C354%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly: Wrestlemania Edition Board Game for Ages 8 and up, Monopoly Game Inspired by WWE Wrestlemania, Family Games for 2-6 Players, Kids Games</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Wrestlemania-Inspired-Family-Players/dp/B0BYKDLP1G/ref=sr_1_9?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Monopoly Junior Super Mario Edition Board Game, Fun Kids' Ages 5 and Up, Explore The Mushroom Kingdom as Mario, Peach, Yoshi, or Luigi (Amazon Exclusive)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0ODk0NjY5NjM3MzkyMDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA1NTA5MjY3NzM5ODo6MDo6&amp;url=%2FMonopoly-Explore-Mushroom-Kingdom-Exclusive%2Fdp%2FB09D44P9HK%2Fref%3Dsxin_23_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.8JiAL4QBVB_u63_7Msg55bL1961jRjXjRZMAKfOkqzJJwZhRW0bg0sNZhCirtZQKY8LFQgocBrfjZNkNlOu09g.k541XYBRAwIjp4nJaJ0RIMkOUZYRwZhmrijHZ6d0nTw%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB09D44P9HK%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3DFKQ9L%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/Monopoly-Wrestlemania-Inspired-Family-Players/dp/B0BYKDLP1G/ref=sr_1_9?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-9</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Dungeons &amp; Dragons: Honor Among Thieves Game, Inspired by The D&amp;D Movie, Monopoly D&amp;D Board Game for 2-5 Players, Ages 8 and Up</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Dungeons-Dragons-Thieves-Inspired/dp/B0BFG3HD18/ref=sr_1_14?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Monopoly-Dungeons-Dragons-Thieves-Inspired/dp/B0BFG3HD18/ref=sr_1_15?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-15</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Board Game, 2-Sided Gameboard, 2 Games in 1, Monopoly Game for Younger Kids Ages 4 and Up, Kids Games for 2 to 6 Players</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfYXRmOjIwMDE2ODE0MzY5NjI5ODo6MDo6&amp;url=%2FMonopoly-2-Sided-Gameboard-Younger-Players%2Fdp%2FB0BGT7Y58V%2Fref%3Dsr_1_4_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-2-Sided-Gameboard-Younger-Players/dp/B0BGT7Y58V/ref=sr_1_10?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-10</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjkzNjQ1ODQ1NDU3MDgwOjE3MTEwMjQ2MTE6c3BfYXRmOjIwMDE2ODE0MzY5NjI5ODo6MDo6&amp;url=%2FMonopoly-2-Sided-Gameboard-Younger-Players%2Fdp%2FB0BGT7Y58V%2Fref%3Dsr_1_4_sspa%3Fcrid%3D3J9YIYTRQE2JA%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711024611%26sprefix%3Dhasb%252Caps%252C354%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Monopoly-2-Sided-Gameboard-Younger-Players/dp/B0BGT7Y58V/ref=sr_1_12?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-12</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior: Peppa Pig Edition Board Game for 2-4 Players, Indoor Games for Kids, Peppa Pig Toys and Games, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MjA5ODo6Mjo6&amp;url=%2FHasbro-Gaming-Monopoly-Junior-Exclusive%2Fdp%2FB08JM87J5F%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB08JM87J5F%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDY5ODMzNjExMjMzMDgwOjE3MTEwMjQ2MTE6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MjA5ODo6Mjo6&amp;url=%2FHasbro-Gaming-Monopoly-Junior-Exclusive%2Fdp%2FB08JM87J5F%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3J9YIYTRQE2JA%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB08JM87J5F%26pd_rd_r%3Db9beddf9-e2ca-4b45-9180-8f0d8044b4e6%26pd_rd_w%3DH31nv%26pd_rd_wg%3DaJUdE%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D80DMMCHA16YRSWD5M5VM%26qid%3D1711024611%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C354%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Dinosaur Edition Board Game, 2-4 Players, with Dino-Themed Toy Tokens, Kids Easter Basket Stuffers, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Junior-Exclusive/dp/B08TPWZ5GN/ref=sr_1_21?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Junior-Exclusive/dp/B08TPWZ5GN/ref=sr_1_16?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Hasbro Gaming Monopoly Junior: Marvel Spidey and His Amazing Friends Edition Board Game for Kids Ages 5+, with Artwork from The Animated Series, Kids Board Games</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDY5ODMzNjExMjMzMDgwOjE3MTEwMjQ2MTE6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE3NTIwNjY0NzI5ODo6MTo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3J9YIYTRQE2JA%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BHXB9Q8J%26pd_rd_r%3Db9beddf9-e2ca-4b45-9180-8f0d8044b4e6%26pd_rd_w%3DH31nv%26pd_rd_wg%3DaJUdE%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D80DMMCHA16YRSWD5M5VM%26qid%3D1711024611%26sbo%3D9ZOMT9Jm0JH%252Ft%252BWi68iDSA%253D%253D%26sprefix%3Dhasb%252Caps%252C354%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Hasbro Gaming Monopoly Chance Board Game for Adults and Kids | Fast-Paced Family Party Game | Ages 8+ | 2-4 Players | 20 Mins. Average</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Monopoly-Chance-Fast-Paced-Players-Average/dp/B0BS76J789/ref=sr_1_11?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Spidey-Friends/dp/B0BHXB9Q8J/ref=sr_1_21?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-21</t>
   </si>
   <si>
     <t>Monopoly Hasbro Gaming Junior: Unicorn Edition Board Game, 2-4 Players, Magical-Themed Indoor Game, Kids Easter Basket Stuffers, Ages 5+ (Amazon Exclusive)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MTc5ODo6MDo6&amp;url=%2FMonopoly-Junior-Unicorn-Magical-Themed-Exclusive%2Fdp%2FB089GYBVSF%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB089GYBVSF%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Hasbro Gaming Monopoly Junior: Marvel Spidey and His Amazing Friends Edition Board Game for Kids Ages 5+, with Artwork from The Animated Series, Kids Board Games</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE3NTIwNjY0NzI5ODo6MTo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BHXB9Q8J%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3D9ZOMT9Jm0JH%252Ft%252BWi68iDSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Hasbro Gaming Monopoly Chance Board Game for Adults and Kids | Fast-Paced Family Party Game | Ages 8+ | 2-4 Players | 20 Mins. Average</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Monopoly-Chance-Fast-Paced-Players-Average/dp/B0BS76J789/ref=sr_1_11?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-Monopoly-Spidey-Friends/dp/B0BHXB9Q8J/ref=sr_1_16?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MjIwMjY4NzIzMjQ1MDgwOjE3MTEwMTY1OTc6c3BfbXRmOjIwMDE3NTIwNjY0NzI5ODo6MDo6&amp;url=%2FHasbro-Gaming-Monopoly-Spidey-Friends%2Fdp%2FB0BHXB9Q8J%2Fref%3Dsr_1_17_sspa%3Fcrid%3D1YW9IDQWC8SBO%26dib%3DeyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26qid%3D1711016597%26sprefix%3Dhasb%252Caps%252C322%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDY5ODMzNjExMjMzMDgwOjE3MTEwMjQ2MTE6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDQyMzM3MTc5ODo6MDo6&amp;url=%2FMonopoly-Junior-Unicorn-Magical-Themed-Exclusive%2Fdp%2FB089GYBVSF%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3J9YIYTRQE2JA%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB089GYBVSF%26pd_rd_r%3Db9beddf9-e2ca-4b45-9180-8f0d8044b4e6%26pd_rd_w%3DH31nv%26pd_rd_wg%3DaJUdE%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D80DMMCHA16YRSWD5M5VM%26qid%3D1711024611%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C354%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Junior Trucks Edition Board Game for Kids Ages 5+, 2-4 Player Kids Games</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo3ODkyNTE2NDQzNTE3MDgwOjE3MTEwMTY1OTc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE2ODE0MzY5NjQ5ODo6Mzo6&amp;url=%2FHasbro-Gaming-F8029-Monopoly-Junior%2Fdp%2FB0BFG31ZP4%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D1YW9IDQWC8SBO%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BFG31ZP4%26pd_rd_r%3D3da15e49-0de1-4d46-80ba-bbc97956a1e8%26pd_rd_w%3D5CZgy%26pd_rd_wg%3Dd8ZGx%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DEB21QY3TKSF766QYQKGC%26qid%3D1711016597%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C322%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hasbro-Gaming-F8029-Monopoly-Junior/dp/B0BFG31ZP4/ref=sr_1_13?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-13</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNDY5ODMzNjExMjMzMDgwOjE3MTEwMjQ2MTE6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE2ODE0MzY5NjQ5ODo6Mzo6&amp;url=%2FHasbro-Gaming-F8029-Monopoly-Junior%2Fdp%2FB0BFG31ZP4%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3J9YIYTRQE2JA%26cv_ct_cx%3DHasbro%2BMonopoly%26dib%3DeyJ2IjoiMSJ9.drpBvlHlD6hywmlnu1t_y5AsnSyfWvGhWno5nodSXiDCovgYS0Z3tKmFGfS4Qp6J.HRo2wamaem7sHyZsyNmxs1XUDIC9vuVDSQP1p6GJDGc%26dib_tag%3Dse%26keywords%3DHasbro%2BMonopoly%26pd_rd_i%3DB0BFG31ZP4%26pd_rd_r%3Db9beddf9-e2ca-4b45-9180-8f0d8044b4e6%26pd_rd_w%3DH31nv%26pd_rd_wg%3DaJUdE%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D80DMMCHA16YRSWD5M5VM%26qid%3D1711024611%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dhasb%252Caps%252C354%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hasbro-Gaming-F8029-Monopoly-Junior/dp/B0BFG31ZP4/ref=sr_1_13?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-13</t>
   </si>
   <si>
     <t>Hasbro Gaming Monopoly Bid Game,Quick-Playing Card Game for 4 Players,Game for Families and Kids Ages 7 and Up</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Monopoly-Game-Quick-Playing-Players-Families/dp/B08GXCD8BN/ref=sr_1_22?crid=1YW9IDQWC8SBO&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siRat0NukrdcFv7JjAcEV7q6mvSkHJ79Nqp-AvQPidqaXqqCciQpwpYJdDrdQ3_7OILv9_hz5pH_cbjrRXDmb6YdpI9i_ecwxrp669EJkLvu2M07dKh7cAZ-FUgJ_ZkNEqZ-vvbJYKK9neYDb0HR_fhuKaY8z2LS3iuKzjWMWvZ3fgwqxWcTAaiiVp6Vxgi5dg8dN_T1DdROJTodpVso6RneBt8IH_Cbxn1uMGBgKcBzs.HQJUahvb1L_H2-DEwO_sqENfOxZc1S4q3jgrrczTSI8&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711016597&amp;sprefix=hasb%2Caps%2C322&amp;sr=8-22</t>
+    <t>https://www.amazon.com/Monopoly-Game-Quick-Playing-Players-Families/dp/B08GXCD8BN/ref=sr_1_22?crid=3J9YIYTRQE2JA&amp;dib=eyJ2IjoiMSJ9.ceFEf7_RMJEnjPQM7OWXrzZB25gwCEyxZ3d3RRSjMVOHmWjjuEGdI4aZ7AkLM-siP1XTrApu6oXNuHQ9Sw1ahokF95-WjHEyeoaZOoc70722xcqhALCAScX8cdBYI6CHiRts6nQx2rZ0A8ED-5cQdvXXWTJhjORrMt5U0lDLLG_zZVArp8tfh07e9Pt2FTVA_AVc6XussX5sVAizqb3TmmIsDehsC9JcwbCjDpSAiN8ntaO9vfgXYlFxHO25ddetL1anSs8BSxohj7mcJVsymOBt8IH_Cbxn1uMGBgKcBzs.gMqhys9AOERl4yzVt8yOcI4Y4mbCUf73t_8idHXDyE0&amp;dib_tag=se&amp;keywords=Hasbro+Monopoly&amp;qid=1711024611&amp;sprefix=hasb%2Caps%2C354&amp;sr=8-22</t>
   </si>
   <si>
     <t>Chef Works Unisex Berkeley Chef Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Chef-Works-Berkeley-Chefs-Apron/dp/B078VY8KS1/ref=sr_1_17?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>Chef Works Unisex Memphis Bib Apron</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDE0MjEzOTYzMTU5ODo6Mzo6&amp;url=%2FChef-Works-Unisex-Memphis-Apron%2Fdp%2FB00O8L9HIS%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB00O8L9HIS%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Tarpop 24 Pack Bib Aprons Unisex Commercial Apron Resistant Apron Kitchen BBQ Crafting Aprons for Women Men Chef (Black)</t>
-  </si>
-  <si>
-    <t>2.8 out of 5 stars</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMxNjU3NTg2Mjk4OjowOjo&amp;url=%2FAprons-Commercial-Resistant-Kitchen-Crafting%2Fdp%2FB09L83BY53%2Fref%3Dsr_1_22_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/Chef-Works-Berkeley-Chefs-Apron/dp/B078VY8KS1/ref=sr_1_16?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Caldo Canvas Kitchen Apron for Cooking - Mens and Womens Canvas Apron for Professional Chef, Server, or Barista- Adjustable with Pockets (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjIwMDA2MDE0NjgxNTMyMTo6MDo6&amp;url=%2FCALDO-Canvas-Kitchen-Apron-Cooking%2Fdp%2FB08TX8431T%2Fref%3Dsr_1_19_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hudson Durable Goods - Heavy Duty Waxed Canvas Work Apron - Grey</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTU1MTo6MTo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB071R16Y5N%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDY4MzE1NjI1NDExMDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTU1MTo6MTo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lnG88z_qzAaXSeiosOvh6ihflfjtlq5aHE7D4s-iFz_3wLOm0OLtx2oHBI6j8EJO-Q.QU3d2AYTKhyibT6PxNJ17GSuH-yY-PUuXmklUfS-8qQ%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB071R16Y5N%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DA8zUe%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-2-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjIwMDAzMDEyMTIxNTU1MTo6MDo6&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsr_1_14_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Works Unisex Dorset Bib Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAyOTM5NDQ3NTY5ODo6MDo6&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01C02METK%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMwMTIxMjE1NTUxOjowOjo&amp;url=%2FHudson-Durable-Goods-Cross-Back-Adjustable%2Fdp%2FB071R16Y5N%2Fref%3Dsr_1_14_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDI5Mzk0NDc1Njk4OjowOjo&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsr_1_20_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjY4NDczNDg0NDA3MDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAyOTM5NDQ3NTY5ODo6MDo6&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.c-QptStuLDlhWcvfOiUpNWCiGvjk7-vcUyhox63g1sodRXdcg7F9oFNse9IkClOr.-gN9Khr89HSfOZJ8d0ng1KEpykdFPn_W1J07G531a8k%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01C02METK%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DT87eU%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-1-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjIwMDAyOTM5NDQ3NTY5ODo6MDo6&amp;url=%2FChef-Works-Unisex-Dorset-Apron%2Fdp%2FB01C02METK%2Fref%3Dsr_1_21_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Hudson Durable Goods - Professional Grade Chef Apron for Kitchen, BBQ &amp; Grill</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDMwMTIxMjE2MjUxOjowOjo&amp;url=%2FHudson-Durable-Goods-Kitchen-Adjustable%2Fdp%2FB075QX6L1B%2Fref%3Dsr_1_13_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTA1MTo6NDo6&amp;url=%2FHudson-Durable-Goods-Professional-Adjustable%2Fdp%2FB01MTXPN0E%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01MTXPN0E%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hudson-Durable-Goods-Professional-Adjustable/dp/B01MTXPN0E/ref=sr_1_16?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-16</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjIwMDAzMDEyMTIxNjI1MTo6MDo6&amp;url=%2FHudson-Durable-Goods-Kitchen-Adjustable%2Fdp%2FB075QX6L1B%2Fref%3Dsr_1_13_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDY4MzE1NjI1NDExMDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDAzMDEyMTIxNTA1MTo6NDo6&amp;url=%2FHudson-Durable-Goods-Professional-Adjustable%2Fdp%2FB01MTXPN0E%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lnG88z_qzAaXSeiosOvh6ihflfjtlq5aHE7D4s-iFz_3wLOm0OLtx2oHBI6j8EJO-Q.QU3d2AYTKhyibT6PxNJ17GSuH-yY-PUuXmklUfS-8qQ%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01MTXPN0E%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DA8zUe%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-5-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hudson-Durable-Goods-Professional-Adjustable/dp/B01MTXPN0E/ref=sr_1_17?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Aprons Unisex Bib Aprons - 100% Polyester Chef Apron with Extra Long Ties – Cooking Apron for Men Women</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfYXRmOjIwMDA4ODA2OTUxMDU5ODo6MDo6&amp;url=%2FAvalon-Kitchen-Unisex-Bib-Apron%2Fdp%2FB08FTFM4MW%2Fref%3Dsr_1_3_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDY4MzE1NjI1NDExMDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA4ODA2OTUxMDU5ODo6Mjo6&amp;url=%2FAvalon-Kitchen-Unisex-Bib-Apron%2Fdp%2FB08FTFM4MW%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lnG88z_qzAaXSeiosOvh6ihflfjtlq5aHE7D4s-iFz_3wLOm0OLtx2oHBI6j8EJO-Q.QU3d2AYTKhyibT6PxNJ17GSuH-yY-PUuXmklUfS-8qQ%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB08FTFM4MW%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DA8zUe%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Syntus 12 Pack Bib Apron, Unisex Aprons Adjustable Waterdrop Resistant with 2 Pockets Cooking Kitchen Apron for Chef, BBQ Drawing Apron Bulk, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Syntus-Adjustable-Waterdrop-Resistant-Pockets/dp/B07S9QTPGH/ref=sr_1_18?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Syntus-Adjustable-Waterdrop-Resistant-Pockets/dp/B07S9QTPGH/ref=sr_1_18?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjMwMDA4ODEzODg5MjIwMjo6MDo6&amp;url=%2FSyntus-Adjustable-Waterdrop-Resistant-Pockets%2Fdp%2FB07S9QTPGH%2Fref%3Dsr_1_20_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Aprons - Cross Back&amp;Adjustable Dupont paper Apron for Men and Women With Pockets</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMTU0Mjk0OTA1NTAyOjowOjo&amp;url=%2FMIKI-WELL-Chef-Aprons-Adjustable%2Fdp%2FB0CRDP5S8G%2Fref%3Dsr_1_19_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cooking Apron For Men Chefs Apron Denim Apron For Grill Masters Pros &amp; Chefs Utility Apron Jewelers Apron Barista</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MjAwMDkwNzAzNjU0MzIxOjowOjo&amp;url=%2FCooking-Kitchen-Masters-Utility-Jewelers%2Fdp%2FB08H5WF1S6%2Fref%3Dsr_1_2_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjMwMDE1NDI5NDkwNTUwMjo6MDo6&amp;url=%2FMIKI-WELL-Chef-Aprons-Adjustable%2Fdp%2FB0CRDP5S8G%2Fref%3Dsr_1_22_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Cross Back Kitchen Apron with Pockets Cooking Apron for Men and Women – Striped Cotton Canvas Chef Apron Bib</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MzAwMDE3NzQ4MTYxMDAyOjowOjo&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsr_1_1_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C1Y9HNXJ%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfYXRmOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDY4MzE1NjI1NDExMDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDAxNzc0ODE2MTAwMjo6MDo6&amp;url=%2FHANEE-Cross-Back-Cotton-Canvas-Stripes%2Fdp%2FB0C1Y9HNXJ%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lnG88z_qzAaXSeiosOvh6ihflfjtlq5aHE7D4s-iFz_3wLOm0OLtx2oHBI6j8EJO-Q.QU3d2AYTKhyibT6PxNJ17GSuH-yY-PUuXmklUfS-8qQ%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C1Y9HNXJ%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DA8zUe%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-1-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Apron-Cross Back Apron for Men Women with Adjustable Straps and Large Pockets,Canvas,M-XXL,Black</t>
   </si>
   <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RNmsisQmFwXRD4EJh89z8_AAAAGOYIlttwEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICAaYW8Q/https://www.amazon.com/Apron-Adjustable-Straps-Pockets-Canvas/dp/B07ZKWMPFD/ref=sxin_12_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=3CJL40W60GIKX&amp;cv_ct_cx=Chef+Apron&amp;dib=eyJ2IjoiMSJ9.SJU70dEPIaHAZYzAphV9Xw.R7OBeVxqod6IGxYQ9qA1--vJOFP2SOcGuwbIV0RMGuk&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;pd_rd_i=B07ZKWMPFD&amp;pd_rd_r=196a92c7-a2aa-4cf3-b25e-5ed9f18e280c&amp;pd_rd_w=as9kD&amp;pd_rd_wg=Y0dlH&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=5CADAXSVRWNMZMQ6MM7N&amp;qid=1711016603&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=chef%2Caps%2C313&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>Nail Apron Beauty Aprons for Women Cooking Baking Kitchen BBQ Chef Bib Aprons Unisex Adjustable Neck Strap with 2 Pockets WQDWSS200</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6NDpCMEMzWkhDSktCOnNlYXJjaA&amp;url=%2FSSCSTS-Cooking-Kitchen-Adjustable-WQDWSS200%2Fdp%2FB0C3ZHCJKB%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C3ZHCJKB%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MjAwMDgyMzAxOTIxNzExOjowOjo&amp;url=%2FApron-Adjustable-Straps-Pockets-Canvas%2Fdp%2FB07ZKWMPFD%2Fref%3Dsr_1_21_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://aax-us-iad.amazon.com/x/c/RKAegFiBGzEziw0pplIrRgIAAAGOYQPfSgEAAAH2AQBvbm9fdHhuX2JpZDUgICBvbm9fdHhuX2ltcDEgICCWJR5_/https://www.amazon.com/Apron-Adjustable-Straps-Pockets-Canvas/dp/B07ZKWMPFD/ref=sxin_12_sbv_search_btf?content-id=amzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f%3Aamzn1.sym.c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;crid=2KJYJADG2F9E1&amp;cv_ct_cx=Chef+Apron&amp;dib=eyJ2IjoiMSJ9.SJU70dEPIaHAZYzAphV9Xw.R7OBeVxqod6IGxYQ9qA1--vJOFP2SOcGuwbIV0RMGuk&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;pd_rd_i=B07ZKWMPFD&amp;pd_rd_r=0e723822-0f63-464c-9974-d6c2270cfdd7&amp;pd_rd_w=lDiPE&amp;pd_rd_wg=2qUfS&amp;pf_rd_p=c44d9f79-d706-4fe9-a72f-cc7d2fe3208f&amp;pf_rd_r=DYC05PF5BE081NY58V48&amp;qid=1711024627&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=che%2Caps%2C337&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>Maison d' Hermine 100% Cotton Kitchen Apron with an Adjustable Neck with Long Ties for Women Men Chef</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjY4NDczNDg0NDA3MDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0NzkxOTE1NDgwMjo6MTo6&amp;url=%2FMaison-Hermine-Botanical-Cotton-adjustable%2Fdp%2FB01JOFJBWY%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.c-QptStuLDlhWcvfOiUpNWCiGvjk7-vcUyhox63g1sodRXdcg7F9oFNse9IkClOr.-gN9Khr89HSfOZJ8d0ng1KEpykdFPn_W1J07G531a8k%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB01JOFJBWY%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DT87eU%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>NLUS 2 Pack Kitchen Cooking Aprons, Adjustable Bib Soft Chef Apron with 2 Pockets for Men Women(Black/Brown Stripes)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Kitchen-Cooking-Adjustable-Pockets-Stripes/dp/B08F79GXXM/ref=sr_1_8?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Kitchen-Cooking-Adjustable-Pockets-Stripes/dp/B08F79GXXM/ref=sr_1_8?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Tosewever Canvas Cross Back Chef Cotton Aprons for Men Women with Large Pockets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjY4NDczNDg0NDA3MDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjIwMDA3ODM0Njc3MDE1MTo6Mjo6&amp;url=%2FTosewever-Adjustable-Pockets-Waterdrop-Cappuccino%2Fdp%2FB0948NDJ3W%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.c-QptStuLDlhWcvfOiUpNWCiGvjk7-vcUyhox63g1sodRXdcg7F9oFNse9IkClOr.-gN9Khr89HSfOZJ8d0ng1KEpykdFPn_W1J07G531a8k%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0948NDJ3W%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DT87eU%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Works Unisex Bistro Chef Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMDcyMTA5MTU1NDAyOjowOjo&amp;url=%2FChef-Works-Bistro-32-Inch-Length%2Fdp%2FB002JM16DM%2Fref%3Dsr_1_11_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjMwMDA3MjEwOTE1NTQwMjo6MDo6&amp;url=%2FChef-Works-Bistro-32-Inch-Length%2Fdp%2FB002JM16DM%2Fref%3Dsr_1_11_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-11-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Chef Aprons for Men Women, Cotton Canvas Cross Back Adjustable Apron with Large Pockets for Kitchen Garden Salon, Size M to XXL (Black)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNzIyMjYzNDk0NTIxMDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0Nzc4NjM4MTUwMjo6Mjo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lsVRe6zNufXui-zAHZiqgZzlL-MsDfIF47CwXb9dJS-ywLOm0OLtx2oHBI6j8EJO-Q.LUcALkTul-KFDYwI7eo3sxiwz8MwskRsXySR6fFwER8%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C88Y2FG9%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3DdxE8D%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-3-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9tdGY6MzAwMTQ3Nzg2MzgxNTAyOjowOjo&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsr_1_12_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Bluegogo-Aprons-Adjustable-Pockets-Kitchen/dp/B0C88Y2FG9/ref=sr_1_15?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-15</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2MDY4MzE1NjI1NDExMDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDE0Nzc4NjM4MTUwMjo6Mzo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsxin_13_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%253Aamzn1.sym.16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.RotR0h4iTf9AKhwnVNQ3lnG88z_qzAaXSeiosOvh6ihflfjtlq5aHE7D4s-iFz_3wLOm0OLtx2oHBI6j8EJO-Q.QU3d2AYTKhyibT6PxNJ17GSuH-yY-PUuXmklUfS-8qQ%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C88Y2FG9%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DA8zUe%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D16a28bc9-ae4d-40ff-95af-003bc9e32f6c%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-4-e7845da7-4b73-4873-b4b5-aec156390e83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfbXRmOjMwMDE0Nzc4NjM4MTUwMjo6MDo6&amp;url=%2FBluegogo-Aprons-Adjustable-Pockets-Kitchen%2Fdp%2FB0C88Y2FG9%2Fref%3Dsr_1_12_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bluegogo-Aprons-Adjustable-Pockets-Kitchen/dp/B0C88Y2FG9/ref=sr_1_15?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-15</t>
   </si>
   <si>
     <t>Apron for Men Women with Adjustable Straps and Large Pockets, Canvas Cotton Cooking Kitchen Chef Bib Aprons Waterproof Green</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Adjustable-Pockets-Cooking-Waterproof-2726inch/dp/B096SP8Z1R/ref=sr_1_23?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Adjustable-Pockets-Cooking-Waterproof-2726inch/dp/B096SP8Z1R/ref=sr_1_23?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-23</t>
   </si>
   <si>
     <t>Chef Works Unisex Butcher Apron</t>
   </si>
   <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxNTk5NzUxODQ1MDYwODA6MTcxMTAxNjYwMzpzcF9hdGY6MzAwMDAyNTYyNDIwODAyOjowOjo&amp;url=%2FChef-Works-Butcher-Length-24-Inch%2Fdp%2FB002JM16AK%2Fref%3Dsr_1_3_sspa%3Fcrid%3D3CJL40W60GIKX%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711016603%26sprefix%3Dchef%252Caps%252C313%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Chef-Works-Unisex-Butcher-Apron/dp/B00A8V2I6K/ref=sr_1_10?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-10</t>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NDkxMTg0MDYwNjM5MDgwOjE3MTEwMjQ2Mjc6c3BfYXRmOjMwMDAwMjU2MjQyMDgwMjo6MDo6&amp;url=%2FChef-Works-Butcher-Length-24-Inch%2Fdp%2FB002JM16AK%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2KJYJADG2F9E1%26dib%3DeyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o%26dib_tag%3Dse%26keywords%3DChef%2BApron%26qid%3D1711024627%26sprefix%3Dche%252Caps%252C337%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Chef-Works-Unisex-Butcher-Apron/dp/B00A8V2I6K/ref=sr_1_10?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-10</t>
   </si>
   <si>
     <t>Will Well Chef Apron for Men and Women Professional for Cooking With Pockets - Adjustable - Bib Aprons - Water &amp; Oil Resistant - 1 Pack, Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Will-Well-Adjustable-Resistant-Cooking/dp/B0825R55PT/ref=sr_1_7?crid=3CJL40W60GIKX&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_6gVaD-HVjjrawDr4Up7_NoAoHm9u6X6nb1FqNd6neLDnCWqfC0Nk03CwwWPyJ8d3H8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5UVlsLIweH8XyQtX1xrXmeZKeZW5hvz7Vr6ot2jSCB3notkmLuHvN9FtvbtSAsaUbZh4vF0ATl5lE1jNkmSfpCddqYpgcKQWCDsJ5nreSunw.yvGjoUOScLzdZ0q0co9vWk7jP2kwX0dukpPknA7Mb8A&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711016603&amp;sprefix=chef%2Caps%2C313&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Funny Apron for Men, Cooking Chef Apron with Pockets, Adjustable Size, Creative Gifts for Boyfriend, Dad, Husband, Grandpa</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MjpCMENCV1FWOUIxOnNlYXJjaA&amp;url=%2FDebuosim-Cooking-Adjustable-Creative-Boyfriend%2Fdp%2FB0CBWQV9B1%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0CBWQV9B1%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-2-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Grill Master Apron for Men with Pockets, Mens Aprons for Grilling Cooking BBQ, Birthday Gifts for Chef Dad Husband</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToyMjY1NTkzNzExNDM2MDgwOjE3MTEwMTY2MDM6c3Bfc2VhcmNoX3RoZW1hdGljOjo6MzpCMEM4UzJROUtNOnNlYXJjaA&amp;url=%2FPockets-Grilling-Husband-Fathers-Birthday%2Fdp%2FB0C8S2Q9KM%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D3CJL40W60GIKX%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.JAuwsF_dbYwJqJN9_Sa5AUYQkWn_J7xPYtbW0hHrCWRr_vypz6-nTMXU-2SQxuKP.iILygxQXNdcseUZbhnA8X62ImLCb-Q6hU11Wg5Z93cw%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0C8S2Q9KM%26pd_rd_r%3D196a92c7-a2aa-4cf3-b25e-5ed9f18e280c%26pd_rd_w%3D1Pqd0%26pd_rd_wg%3DY0dlH%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3D5CADAXSVRWNMZMQ6MM7N%26qid%3D1711016603%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dchef%252Caps%252C313%26sr%3D1-3-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
+    <t>https://www.amazon.com/Will-Well-Adjustable-Resistant-Cooking/dp/B0825R55PT/ref=sr_1_7?crid=2KJYJADG2F9E1&amp;dib=eyJ2IjoiMSJ9.ZXsjYFMf2CxvwmZIQuXrCD3DnCfeR6wJX3qxsxAwjQ4CrjeZpTA8OAyq4uaogP3-_tnEewiJ4lcyfts8bUA7_xFy0kSvdmOK7jNuB4pCCJc8IWQWMMTIJ6_QLNt1G9jqhFnZ5K2pvVTAiRgla__vjH8yRCqNZPxYeqwFOUI4t5R7ITrmq0mzXPHYMM3fE7B5o9_XAOYJEoec0vBRtcSayRzPlanSbu5fRv4N9E93VU0mlZLC9FqSUEzN5WvNFTrlX946dMJsqo4cDR8zVW3NfhEKxprjnkinMzET7R0JBJw.dlGg6sH562NNI77ilzf_kURJ0lE6rh7G5ID_6LX7C9o&amp;dib_tag=se&amp;keywords=Chef+Apron&amp;qid=1711024627&amp;sprefix=che%2Caps%2C337&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Encasa Homes Adjustable Kitchen Cotton Apron With Pockets &amp; Towel Holder Of Size 27 x 33 inch (Mango + Brick Straps) for Men &amp; Women Chefs For Cooking &amp; Baking in Home, Restaurants &amp; Barbeque</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTozMjY4NDczNDg0NDA3MDgwOjE3MTEwMjQ2Mjc6c3Bfc2VhcmNoX3RoZW1hdGljOjMwMDEwMzEyNjgzMjMwMjo6NDo6&amp;url=%2FEncasa-Adjustable-Kitchen-Restaurants-Barbeque%2Fdp%2FB0BWTZFBJX%2Fref%3Dsxin_14_pa_sp_search_thematic_sspa%3Fcontent-id%3Damzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%253Aamzn1.sym.3b6f6e97-b87a-4348-9b39-566e0375571e%26crid%3D2KJYJADG2F9E1%26cv_ct_cx%3DChef%2BApron%26dib%3DeyJ2IjoiMSJ9.c-QptStuLDlhWcvfOiUpNWCiGvjk7-vcUyhox63g1sodRXdcg7F9oFNse9IkClOr.-gN9Khr89HSfOZJ8d0ng1KEpykdFPn_W1J07G531a8k%26dib_tag%3Dse%26keywords%3DChef%2BApron%26pd_rd_i%3DB0BWTZFBJX%26pd_rd_r%3D0e723822-0f63-464c-9974-d6c2270cfdd7%26pd_rd_w%3DT87eU%26pd_rd_wg%3D2qUfS%26pf_rd_p%3D3b6f6e97-b87a-4348-9b39-566e0375571e%26pf_rd_r%3DDYC05PF5BE081NY58V48%26qid%3D1711024627%26sbo%3DRZvfv%252F%252FHxDF%252BO5021pAnSA%253D%253D%26sprefix%3Dche%252Caps%252C337%26sr%3D1-4-ac07dfd7-5f37-4797-bcf7-0f4905c82761-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM%26psc%3D1</t>
   </si>
 </sst>
 </file>
@@ -798,15 +780,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D55A87-6745-4238-9DC4-B5155FC6230B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E2D274-FC5A-4103-B78E-402E09D6684D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="183.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -832,495 +814,495 @@
     </row>
     <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3">
-        <v>52</v>
+        <v>52.99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36.99</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3">
+        <v>31.99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10210</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3">
-        <v>862</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="3">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="3">
-        <v>65</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3">
-        <v>31</v>
+        <v>31.99</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3">
-        <v>10211</v>
+        <v>10210</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>243</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3">
-        <v>31</v>
+        <v>31.5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>10211</v>
+        <v>243</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3">
-        <v>31</v>
+        <v>30.99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3">
-        <v>243</v>
+        <v>7050</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3">
-        <v>30</v>
+        <v>29.99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3">
-        <v>7048</v>
+        <v>7050</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
-        <v>29</v>
+        <v>29.99</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3">
-        <v>7048</v>
+        <v>7050</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3">
+        <v>26.99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>671</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3">
+        <v>26.99</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>671</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7048</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="3">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4524</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="B13" s="3">
-        <v>23</v>
+        <v>25.99</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>4525</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3">
-        <v>21</v>
+        <v>25.99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
-        <v>43</v>
+        <v>4525</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3">
-        <v>20</v>
+        <v>23.99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3">
-        <v>20</v>
+        <v>20.99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3">
-        <v>17</v>
+        <v>20.99</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>7296</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3">
-        <v>17</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>7298</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="3">
-        <v>17</v>
+        <v>17.59</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>7296</v>
+        <v>7028</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6412</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15.29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1046</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>832</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="3">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6409</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="3">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3">
-        <v>832</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="3">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3">
-        <v>126</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="B23" s="3">
-        <v>13</v>
+        <v>13.99</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
         <v>126</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3">
-        <v>13</v>
+        <v>13.99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
         <v>126</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B25" s="3">
-        <v>12</v>
+        <v>13.99</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>435</v>
+        <v>126</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B26" s="3">
-        <v>11</v>
+        <v>12.99</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3">
-        <v>2314</v>
+        <v>436</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" s="3">
-        <v>11</v>
+        <v>11.99</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3">
         <v>2314</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B28" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D28" s="3">
-        <v>11901</v>
+        <v>2314</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B29" s="3">
-        <v>9</v>
+        <v>9.98</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>11907</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3">
-        <v>9</v>
+        <v>9.58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1329,15 +1311,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F30F5-F61A-4086-A693-E82C27AE006F}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98370D7-D888-49FF-B49B-61F22D37FBB7}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="163.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1361,12 +1343,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>44</v>
+        <v>44.99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -1375,219 +1357,219 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>44</v>
+        <v>44.44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>27.28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13429</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13427</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27.28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13429</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13427</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>25</v>
+        <v>25.46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>451</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>25.14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1492</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="1">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>249</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
-        <v>17</v>
+        <v>17.97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="1">
-        <v>17</v>
+        <v>15.99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
-        <v>105</v>
+        <v>1709</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>15.49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3556</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1709</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>288</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3555</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>320</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="1">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8481</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -1596,109 +1578,75 @@
         <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8482</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>318</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1">
-        <v>288</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
-        <v>14</v>
+        <v>12.99</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>186</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1">
-        <v>288</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>1645</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" s="1">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1">
-        <v>186</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="1">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1">
-        <v>186</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1645</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1707,15 +1655,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0566C-BA8D-46CD-AA6F-D2C89A0ABB7C}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609B2147-BB42-4B2F-B578-C955424337D6}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1739,18 +1687,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>224</v>
+        <v>139.97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>265</v>
+        <v>805</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1761,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>139</v>
+        <v>119.99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1778,24 +1726,24 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>115.49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>761</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>88.85</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>110</v>
+      <c r="D5" s="1">
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -1806,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>88</v>
+        <v>88.1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1823,13 +1771,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>88</v>
+        <v>81.99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1840,30 +1788,24 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>81</v>
+        <v>80.11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>80</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
@@ -1871,10 +1813,10 @@
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>79</v>
+        <v>79.98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1891,41 +1833,47 @@
         <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>79</v>
+        <v>78.86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
-        <v>79</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>78</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -1933,16 +1881,16 @@
     </row>
     <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>75.98</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1">
-        <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1">
         <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
@@ -1950,16 +1898,16 @@
     </row>
     <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -1967,36 +1915,19 @@
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>65</v>
+        <v>64.97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7D0BE1-E383-478D-9A6B-4718D7A65315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F341D5BE-695E-4D8D-8B68-D81D871ADF94}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
